--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="105">
   <si>
     <t>username</t>
   </si>
@@ -94,13 +94,16 @@
     <t>nupur</t>
   </si>
   <si>
+    <t>Vardaan</t>
+  </si>
+  <si>
     <t>240be518fabd2724ddb6f04eeb1da5967448d7e831c08c8fa822809f74c720a9</t>
   </si>
   <si>
     <t>fb861f355d48c19f574e1a6e751d22deb09f8447f774fa80d2a8c6c031efd6c8</t>
   </si>
   <si>
-    <t>ec0551229a418000884754f02c0358b7649db034808ebc05393f8cc70ed25388</t>
+    <t>6d5a9e0fd9eb6b313c200c18f8af2904497cd4cecb9ae719c2fad9e2f71295b7</t>
   </si>
   <si>
     <t>fcb2323fd67bac8fb0c141c4daf00bdb5deb5b9a493cca0e0fbe825863f26136</t>
@@ -190,6 +193,9 @@
     <t>Nupur Munjal</t>
   </si>
   <si>
+    <t>Vardaan Aggarwal</t>
+  </si>
+  <si>
     <t>admin@koenig-solutions.com</t>
   </si>
   <si>
@@ -238,9 +244,15 @@
     <t>nupur.munjal@koenig-solutions.com</t>
   </si>
   <si>
+    <t>vardaan.aggarwal@koenig-solutions.com</t>
+  </si>
+  <si>
     <t>team_member</t>
   </si>
   <si>
+    <t>Authorised Singator and Manager in Dubai</t>
+  </si>
+  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -253,6 +265,9 @@
     <t>COM EA Team</t>
   </si>
   <si>
+    <t>Admin</t>
+  </si>
+  <si>
     <t>ADMIN</t>
   </si>
   <si>
@@ -301,13 +316,19 @@
     <t>EMP1687</t>
   </si>
   <si>
+    <t>EMP1636</t>
+  </si>
+  <si>
     <t>2026-01-01</t>
   </si>
   <si>
-    <t>2026-01-01 17:36:18</t>
-  </si>
-  <si>
-    <t>2026-01-01 17:37:45</t>
+    <t>2026-01-07 11:37:41</t>
+  </si>
+  <si>
+    <t>2026-01-01 18:13:47</t>
+  </si>
+  <si>
+    <t>2026-01-07 14:44:46</t>
   </si>
 </sst>
 </file>
@@ -665,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,31 +729,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -740,28 +761,28 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -769,31 +790,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -801,28 +822,28 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -830,28 +851,28 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -859,28 +880,28 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -888,28 +909,28 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -917,28 +938,28 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -946,28 +967,28 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -975,28 +996,28 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1004,28 +1025,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1033,28 +1057,28 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1062,28 +1086,28 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1091,28 +1115,28 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1120,28 +1144,28 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1149,28 +1173,51 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
         <v>78</v>
       </c>
-      <c r="G17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>95</v>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -328,7 +328,7 @@
     <t>2026-01-01 18:13:47</t>
   </si>
   <si>
-    <t>2026-01-07 14:44:46</t>
+    <t>2026-01-08 19:30:07</t>
   </si>
 </sst>
 </file>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -328,7 +328,7 @@
     <t>2026-01-01 18:13:47</t>
   </si>
   <si>
-    <t>2026-01-08 19:30:07</t>
+    <t>2026-01-09 18:33:35</t>
   </si>
 </sst>
 </file>

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -328,7 +328,7 @@
     <t>2026-01-01 18:13:47</t>
   </si>
   <si>
-    <t>2026-01-09 18:33:35</t>
+    <t>2026-01-12 16:11:11</t>
   </si>
 </sst>
 </file>
